--- a/DOC/結合テスト/EMSM_結合テストエビデンス_雇用保険リスト.xlsx
+++ b/DOC/結合テスト/EMSM_結合テストエビデンス_雇用保険リスト.xlsx
@@ -10,11 +10,15 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C42BA4-D8E4-4D26-A2CC-9F217638C962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{E97C25ED-A76B-4C76-8335-E973CA966944}" activeTab="1"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{E97C25ED-A76B-4C76-8335-E973CA966944}"/>
   </bookViews>
   <sheets>
     <sheet name="NO.1" sheetId="5" r:id="rId1"/>
-    <sheet name="NO.2" sheetId="6" r:id="rId2"/>
+    <sheet name="NO.2" sheetId="8" r:id="rId3"/>
+    <sheet name="NO.3" sheetId="7" r:id="rId4"/>
+    <sheet name="NO.4" sheetId="6" r:id="rId2"/>
+    <sheet name="NO.5" sheetId="9" r:id="rId8"/>
+    <sheet name="NO.6" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -330,12 +334,39 @@
     <t xml:space="preserve">No.1初期表示ー社内管理システム機能画面
 </t>
   </si>
+  <si>
+    <t>NO.4</t>
+  </si>
+  <si>
+    <t>社内管理システム機能画面の「雇用保険機テブール」ボタン押す</t>
+  </si>
+  <si>
+    <t>NO.3</t>
+  </si>
+  <si>
+    <t>セレクトボックスのオプションから3年分の年度が表示</t>
+  </si>
+  <si>
+    <t>NO.5</t>
+  </si>
+  <si>
+    <t>新規追加ボダン押す</t>
+  </si>
+  <si>
+    <t>雇用保険画面へ遷移される</t>
+  </si>
+  <si>
+    <t>NO.6</t>
+  </si>
+  <si>
+    <t>更新ボダン押す</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,8 +428,14 @@
       <charset val="128"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,8 +454,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF943734"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -463,11 +505,18 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -544,6 +593,9 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" xfId="0">
       <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="4" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,6 +899,674 @@
           <a:ext cx="371475" cy="38100"/>
         </a:xfrm>
         <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7753350" cy="2533650"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="828675"/>
+          <a:ext cx="7753350" cy="2533650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10610850" cy="3629025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="3990975"/>
+          <a:ext cx="10610850" cy="3629025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="1276350"/>
+          <a:ext cx="1123950" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1495425" y="1562100"/>
+          <a:ext cx="333375" cy="2466975"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8229600" cy="2286000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="571500"/>
+          <a:ext cx="8229600" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="923925"/>
+          <a:ext cx="400050" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6267450" cy="4476750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="3762375"/>
+          <a:ext cx="6267450" cy="4476750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8039100" cy="2305050"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="762000"/>
+          <a:ext cx="8039100" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="2581275"/>
+          <a:ext cx="523875" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="2847975"/>
+          <a:ext cx="142875" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7896225" cy="3810000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="600075"/>
+          <a:ext cx="7896225" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8334375" cy="6562725"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="4972050"/>
+          <a:ext cx="8334375" cy="6562725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="2324100"/>
+          <a:ext cx="390525" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7943850" y="2533650"/>
+          <a:ext cx="123825" cy="2457450"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -1213,15 +1933,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1" tabSelected="1">
-      <selection activeCell="L1" activeCellId="0" sqref="L1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
@@ -1238,4 +1958,114 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="R7" activeCellId="0" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" activeCellId="0" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="P27" activeCellId="0" sqref="P27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="R27" activeCellId="0" sqref="R27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="I25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>